--- a/app/seeds/base.xlsx
+++ b/app/seeds/base.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15820" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="プレイヤー" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="139">
   <si>
     <t>コレクション定義</t>
     <phoneticPr fontId="1"/>
@@ -661,6 +661,17 @@
   </si>
   <si>
     <t>前回ログイン日時</t>
+  </si>
+  <si>
+    <t>gender</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>性別</t>
+    <rPh sb="0" eb="2">
+      <t>セイベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -754,8 +765,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="25">
+  <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -793,7 +806,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="25">
+  <cellStyles count="27">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -806,6 +819,7 @@
     <cellStyle name="ハイパーリンク" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -819,6 +833,7 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="26" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -837,7 +852,7 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1247,10 +1262,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R30"/>
+  <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1633,69 +1648,87 @@
       <c r="H26" s="4"/>
     </row>
     <row r="27" spans="1:18">
-      <c r="E27" s="5"/>
+      <c r="A27" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2">
+        <v>0</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
     </row>
     <row r="28" spans="1:18">
       <c r="E28" s="5"/>
     </row>
     <row r="29" spans="1:18">
-      <c r="A29" s="6" t="s">
+      <c r="E29" s="5"/>
+    </row>
+    <row r="30" spans="1:18">
+      <c r="A30" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:18">
-      <c r="A30" s="1" t="s">
+    <row r="31" spans="1:18">
+      <c r="A31" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="G31" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="H31" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I30" s="1" t="s">
+      <c r="I31" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="J30" s="1" t="s">
+      <c r="J31" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="K30" s="1" t="s">
+      <c r="K31" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="L30" s="1" t="s">
+      <c r="L31" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="M30" s="1" t="s">
+      <c r="M31" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="N30" s="1" t="s">
+      <c r="N31" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="O30" s="1" t="s">
+      <c r="O31" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="P30" s="1" t="s">
+      <c r="P31" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="Q30" s="1" t="s">
+      <c r="Q31" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="R30" s="1" t="s">
+      <c r="R31" s="1" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1988,7 +2021,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>

--- a/app/seeds/base.xlsx
+++ b/app/seeds/base.xlsx
@@ -1265,7 +1265,7 @@
   <dimension ref="A1:R31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1655,9 +1655,7 @@
         <v>22</v>
       </c>
       <c r="C27" s="2"/>
-      <c r="D27" s="2">
-        <v>0</v>
-      </c>
+      <c r="D27" s="2"/>
       <c r="E27" s="2" t="s">
         <v>138</v>
       </c>

--- a/app/seeds/base.xlsx
+++ b/app/seeds/base.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="137">
   <si>
     <t>コレクション定義</t>
     <phoneticPr fontId="1"/>
@@ -661,17 +661,6 @@
   </si>
   <si>
     <t>前回ログイン日時</t>
-  </si>
-  <si>
-    <t>gender</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>性別</t>
-    <rPh sb="0" eb="2">
-      <t>セイベツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -852,7 +841,7 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1262,10 +1251,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R31"/>
+  <dimension ref="A1:R30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="A27" sqref="A27:XFD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1648,85 +1637,69 @@
       <c r="H26" s="4"/>
     </row>
     <row r="27" spans="1:18">
-      <c r="A27" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
+      <c r="E27" s="5"/>
     </row>
     <row r="28" spans="1:18">
       <c r="E28" s="5"/>
     </row>
     <row r="29" spans="1:18">
-      <c r="E29" s="5"/>
+      <c r="A29" s="6" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="30" spans="1:18">
-      <c r="A30" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18">
-      <c r="A31" s="1" t="s">
+      <c r="A30" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="G30" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="H30" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="I30" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="J31" s="1" t="s">
+      <c r="J30" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="K31" s="1" t="s">
+      <c r="K30" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="L31" s="1" t="s">
+      <c r="L30" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="M31" s="1" t="s">
+      <c r="M30" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="N31" s="1" t="s">
+      <c r="N30" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="O31" s="1" t="s">
+      <c r="O30" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="P31" s="1" t="s">
+      <c r="P30" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="Q31" s="1" t="s">
+      <c r="Q30" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="R31" s="1" t="s">
+      <c r="R30" s="1" t="s">
         <v>60</v>
       </c>
     </row>

--- a/app/seeds/base.xlsx
+++ b/app/seeds/base.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15820" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15820" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="プレイヤー" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="139">
   <si>
     <t>コレクション定義</t>
     <phoneticPr fontId="1"/>
@@ -661,6 +661,17 @@
   </si>
   <si>
     <t>前回ログイン日時</t>
+  </si>
+  <si>
+    <t>性別</t>
+    <rPh sb="0" eb="2">
+      <t>セイベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gender</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -754,8 +765,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="27">
+  <cellStyleXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -795,7 +808,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="27">
+  <cellStyles count="29">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -809,6 +822,7 @@
     <cellStyle name="ハイパーリンク" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -823,6 +837,7 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="28" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1253,7 +1268,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A27" sqref="A27:XFD27"/>
     </sheetView>
   </sheetViews>
@@ -1718,10 +1733,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1936,43 +1951,60 @@
       <c r="F17" s="2"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="19" spans="1:10">
-      <c r="E19" s="5"/>
+    <row r="18" spans="1:10">
+      <c r="A18" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="4"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="6" t="s">
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="1" t="s">
+    <row r="22" spans="1:10">
+      <c r="A22" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G22" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="H22" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="I22" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="J22" s="1" t="s">
         <v>135</v>
       </c>
     </row>

--- a/app/seeds/base.xlsx
+++ b/app/seeds/base.xlsx
@@ -1736,7 +1736,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1959,9 +1959,7 @@
         <v>22</v>
       </c>
       <c r="C18" s="2"/>
-      <c r="D18" s="2">
-        <v>0</v>
-      </c>
+      <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
         <v>137</v>
       </c>

--- a/app/seeds/base.xlsx
+++ b/app/seeds/base.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="137">
   <si>
     <t>コレクション定義</t>
     <phoneticPr fontId="1"/>
@@ -661,17 +661,6 @@
   </si>
   <si>
     <t>前回ログイン日時</t>
-  </si>
-  <si>
-    <t>性別</t>
-    <rPh sb="0" eb="2">
-      <t>セイベツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>gender</t>
-    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1733,10 +1722,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1951,58 +1940,43 @@
       <c r="F17" s="2"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="4"/>
+    <row r="19" spans="1:10">
+      <c r="E19" s="5"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="E20" s="5"/>
+      <c r="A20" s="6" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="1" t="s">
+      <c r="A21" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="I21" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="J21" s="1" t="s">
         <v>135</v>
       </c>
     </row>

--- a/app/seeds/base.xlsx
+++ b/app/seeds/base.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15820" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="プレイヤー" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="140">
   <si>
     <t>コレクション定義</t>
     <phoneticPr fontId="1"/>
@@ -661,6 +661,21 @@
   </si>
   <si>
     <t>前回ログイン日時</t>
+  </si>
+  <si>
+    <t>gender</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>性別</t>
+    <rPh sb="0" eb="2">
+      <t>セイベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gender</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -754,8 +769,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="25">
+  <cellStyleXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -793,7 +812,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="25">
+  <cellStyles count="29">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -806,6 +825,8 @@
     <cellStyle name="ハイパーリンク" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -819,6 +840,8 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="28" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -837,7 +860,7 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1247,10 +1270,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R30"/>
+  <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1466,7 +1489,7 @@
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:19">
       <c r="A17" s="2" t="s">
         <v>33</v>
       </c>
@@ -1482,7 +1505,7 @@
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:19">
       <c r="A18" s="2" t="s">
         <v>35</v>
       </c>
@@ -1498,7 +1521,7 @@
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:19">
       <c r="A19" s="2" t="s">
         <v>36</v>
       </c>
@@ -1514,7 +1537,7 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:19">
       <c r="A20" s="2" t="s">
         <v>38</v>
       </c>
@@ -1530,7 +1553,7 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:19">
       <c r="A21" s="2" t="s">
         <v>40</v>
       </c>
@@ -1548,7 +1571,7 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:19">
       <c r="A22" s="2" t="s">
         <v>43</v>
       </c>
@@ -1566,7 +1589,7 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:19">
       <c r="A23" s="2" t="s">
         <v>45</v>
       </c>
@@ -1584,7 +1607,7 @@
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:19">
       <c r="A24" s="2" t="s">
         <v>128</v>
       </c>
@@ -1600,7 +1623,7 @@
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:19">
       <c r="A25" s="2" t="s">
         <v>47</v>
       </c>
@@ -1616,7 +1639,7 @@
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:19">
       <c r="A26" s="2" t="s">
         <v>49</v>
       </c>
@@ -1632,71 +1655,92 @@
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="1:18">
-      <c r="E27" s="5"/>
-    </row>
-    <row r="28" spans="1:18">
+    <row r="27" spans="1:19">
+      <c r="A27" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2">
+        <v>0</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" spans="1:19">
       <c r="E28" s="5"/>
     </row>
-    <row r="29" spans="1:18">
-      <c r="A29" s="6" t="s">
+    <row r="29" spans="1:19">
+      <c r="E29" s="5"/>
+    </row>
+    <row r="30" spans="1:19">
+      <c r="A30" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:18">
-      <c r="A30" s="1" t="s">
+    <row r="31" spans="1:19">
+      <c r="A31" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="G31" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="H31" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I30" s="1" t="s">
+      <c r="I31" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="J30" s="1" t="s">
+      <c r="J31" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="K30" s="1" t="s">
+      <c r="K31" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="L30" s="1" t="s">
+      <c r="L31" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="M30" s="1" t="s">
+      <c r="M31" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="N30" s="1" t="s">
+      <c r="N31" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="O30" s="1" t="s">
+      <c r="O31" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="P30" s="1" t="s">
+      <c r="P31" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="Q30" s="1" t="s">
+      <c r="Q31" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="R30" s="1" t="s">
+      <c r="R31" s="1" t="s">
         <v>60</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -1988,7 +2032,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>

--- a/app/seeds/base.xlsx
+++ b/app/seeds/base.xlsx
@@ -1272,8 +1272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1663,9 +1663,7 @@
         <v>22</v>
       </c>
       <c r="C27" s="2"/>
-      <c r="D27" s="2">
-        <v>0</v>
-      </c>
+      <c r="D27" s="2"/>
       <c r="E27" s="2" t="s">
         <v>138</v>
       </c>

--- a/app/seeds/base.xlsx
+++ b/app/seeds/base.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="137">
   <si>
     <t>コレクション定義</t>
     <phoneticPr fontId="1"/>
@@ -661,21 +661,6 @@
   </si>
   <si>
     <t>前回ログイン日時</t>
-  </si>
-  <si>
-    <t>gender</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>性別</t>
-    <rPh sb="0" eb="2">
-      <t>セイベツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>gender</t>
-    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -860,7 +845,7 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1270,10 +1255,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S31"/>
+  <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1489,7 +1474,7 @@
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:18">
       <c r="A17" s="2" t="s">
         <v>33</v>
       </c>
@@ -1505,7 +1490,7 @@
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:18">
       <c r="A18" s="2" t="s">
         <v>35</v>
       </c>
@@ -1521,7 +1506,7 @@
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:18">
       <c r="A19" s="2" t="s">
         <v>36</v>
       </c>
@@ -1537,7 +1522,7 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:18">
       <c r="A20" s="2" t="s">
         <v>38</v>
       </c>
@@ -1553,7 +1538,7 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:18">
       <c r="A21" s="2" t="s">
         <v>40</v>
       </c>
@@ -1571,7 +1556,7 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" spans="1:18">
       <c r="A22" s="2" t="s">
         <v>43</v>
       </c>
@@ -1589,7 +1574,7 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="1:19">
+    <row r="23" spans="1:18">
       <c r="A23" s="2" t="s">
         <v>45</v>
       </c>
@@ -1607,7 +1592,7 @@
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:19">
+    <row r="24" spans="1:18">
       <c r="A24" s="2" t="s">
         <v>128</v>
       </c>
@@ -1623,7 +1608,7 @@
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="1:19">
+    <row r="25" spans="1:18">
       <c r="A25" s="2" t="s">
         <v>47</v>
       </c>
@@ -1639,7 +1624,7 @@
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
     </row>
-    <row r="26" spans="1:19">
+    <row r="26" spans="1:18">
       <c r="A26" s="2" t="s">
         <v>49</v>
       </c>
@@ -1655,90 +1640,71 @@
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="1:19">
-      <c r="A27" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-    </row>
-    <row r="28" spans="1:19">
+    <row r="27" spans="1:18">
+      <c r="E27" s="5"/>
+    </row>
+    <row r="28" spans="1:18">
       <c r="E28" s="5"/>
     </row>
-    <row r="29" spans="1:19">
-      <c r="E29" s="5"/>
-    </row>
-    <row r="30" spans="1:19">
-      <c r="A30" s="6" t="s">
+    <row r="29" spans="1:18">
+      <c r="A29" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:19">
-      <c r="A31" s="1" t="s">
+    <row r="30" spans="1:18">
+      <c r="A30" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="G30" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="H30" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="I30" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="J31" s="1" t="s">
+      <c r="J30" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="K31" s="1" t="s">
+      <c r="K30" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="L31" s="1" t="s">
+      <c r="L30" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="M31" s="1" t="s">
+      <c r="M30" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="N31" s="1" t="s">
+      <c r="N30" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="O31" s="1" t="s">
+      <c r="O30" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="P31" s="1" t="s">
+      <c r="P30" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="Q31" s="1" t="s">
+      <c r="Q30" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="R31" s="1" t="s">
+      <c r="R30" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="S31" s="1" t="s">
-        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/app/seeds/base.xlsx
+++ b/app/seeds/base.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15820" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15820" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="プレイヤー" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="139">
   <si>
     <t>コレクション定義</t>
     <phoneticPr fontId="1"/>
@@ -661,6 +661,17 @@
   </si>
   <si>
     <t>前回ログイン日時</t>
+  </si>
+  <si>
+    <t>性別</t>
+    <rPh sb="0" eb="2">
+      <t>セイベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gender</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -754,8 +765,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="29">
+  <cellStyleXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -797,7 +810,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="29">
+  <cellStyles count="31">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -812,6 +825,7 @@
     <cellStyle name="ハイパーリンク" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -827,6 +841,7 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="30" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1257,7 +1272,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
@@ -1722,10 +1737,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1940,43 +1955,60 @@
       <c r="F17" s="2"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="19" spans="1:10">
-      <c r="E19" s="5"/>
+    <row r="18" spans="1:10">
+      <c r="A18" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="4"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="6" t="s">
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="1" t="s">
+    <row r="22" spans="1:10">
+      <c r="A22" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G22" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="H22" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="I22" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="J22" s="1" t="s">
         <v>135</v>
       </c>
     </row>

--- a/app/seeds/base.xlsx
+++ b/app/seeds/base.xlsx
@@ -1740,7 +1740,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1963,9 +1963,7 @@
         <v>22</v>
       </c>
       <c r="C18" s="2"/>
-      <c r="D18" s="2">
-        <v>0</v>
-      </c>
+      <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
         <v>137</v>
       </c>

--- a/app/seeds/base.xlsx
+++ b/app/seeds/base.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="136">
   <si>
     <t>コレクション定義</t>
     <phoneticPr fontId="1"/>
@@ -656,22 +656,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>gender</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>前回ログイン日時</t>
-  </si>
-  <si>
-    <t>性別</t>
-    <rPh sb="0" eb="2">
-      <t>セイベツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>gender</t>
-    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1515,7 +1500,7 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="4"/>
@@ -1737,10 +1722,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1940,7 +1925,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:9">
       <c r="A17" s="2" t="s">
         <v>84</v>
       </c>
@@ -1955,59 +1940,41 @@
       <c r="F17" s="2"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="4"/>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="E20" s="5"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="6" t="s">
+    <row r="19" spans="1:9">
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="1" t="s">
+    <row r="21" spans="1:9">
+      <c r="A21" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="I21" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>135</v>
       </c>
     </row>
   </sheetData>
